--- a/prepare_contacts/data/cleaned_outbound_referrals.xlsx
+++ b/prepare_contacts/data/cleaned_outbound_referrals.xlsx
@@ -14,324 +14,534 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
-  <si>
-    <t>Dr/Facility Referred To Full Name</t>
-  </si>
-  <si>
-    <t>Dr/Facility Referred To Address 1 Line 1</t>
-  </si>
-  <si>
-    <t>Dr/Facility Referred To Address 1 City</t>
-  </si>
-  <si>
-    <t>Dr/Facility Referred To Address 1 State</t>
-  </si>
-  <si>
-    <t>Dr/Facility Referred To Address 1 Zip</t>
-  </si>
-  <si>
-    <t>Project ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="176">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Referral Count</t>
+  </si>
+  <si>
+    <t>Waldorf Total Health Chiropractic &amp; Physical Therapy</t>
+  </si>
+  <si>
+    <t>Bezak Chiropractic And Rehabilitation</t>
+  </si>
+  <si>
+    <t>Dunkirk Chiropractic &amp; Wellness Center</t>
+  </si>
+  <si>
+    <t>Effective Integrative Healthcare - Lanham, Md</t>
+  </si>
+  <si>
+    <t>Rebound Integrative Health &amp; Sports Clinic</t>
+  </si>
+  <si>
+    <t>Ameriwell Chiropractic - Silver Spring, Md</t>
+  </si>
+  <si>
+    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fort Washington</t>
+  </si>
+  <si>
+    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Landover, Md</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Baltimore, Md</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Washington, Dc</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Silver Spring, Md</t>
+  </si>
+  <si>
+    <t>Rxwellness Spine &amp; Health - Laurel</t>
+  </si>
+  <si>
+    <t>Excelsia Injury Care - White Marsh, Md</t>
+  </si>
+  <si>
+    <t>Kiro-Plus Health &amp; Wellness, Llc</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic Spinal Rehab &amp; Chiropractic</t>
+  </si>
+  <si>
+    <t>Ameriwell Chiropractic - Capitol Heights</t>
   </si>
   <si>
     <t>Active Physical Therapy</t>
   </si>
   <si>
-    <t>Ameriwell Chiropractic - Capitol Heights</t>
-  </si>
-  <si>
     <t>Ameriwell Chiropractic - Laurel, Md</t>
   </si>
   <si>
-    <t>Ameriwell Chiropractic - Silver Spring, Md</t>
+    <t>Excelsia Injury Care - Abingdon, Md</t>
   </si>
   <si>
     <t>Ameriwell Chiropractic - Wheaton, Md</t>
   </si>
   <si>
+    <t>Total Health Family Clinic - Landover Hills</t>
+  </si>
+  <si>
+    <t>Rxwellness Spine &amp; Health - Rockville</t>
+  </si>
+  <si>
+    <t>Enid Cruise</t>
+  </si>
+  <si>
+    <t>Effective Integrative Healthcare - Millersville, Md</t>
+  </si>
+  <si>
     <t>Atlast Healthcare Of Maryland</t>
   </si>
   <si>
     <t>Bethesda Spine And Posture</t>
   </si>
   <si>
-    <t>Bezak Chiropractic And Rehabilitation</t>
-  </si>
-  <si>
-    <t>Dunkirk Chiropractic &amp; Wellness Center</t>
-  </si>
-  <si>
-    <t>Effective Integrative Healthcare - Lanham, Md</t>
-  </si>
-  <si>
-    <t>Effective Integrative Healthcare - Millersville, Md</t>
-  </si>
-  <si>
-    <t>Enid Cruise</t>
-  </si>
-  <si>
-    <t>Excelsia Injury Care - Abingdon, Md</t>
-  </si>
-  <si>
-    <t>Excelsia Injury Care - White Marsh, Md</t>
+    <t>Maryland Healthcare Clinics - Easton, Md</t>
+  </si>
+  <si>
+    <t>Multi-Specialty Health Care - Baltimore</t>
+  </si>
+  <si>
+    <t>Multi-Specialty Health Care - Camp Springs</t>
+  </si>
+  <si>
+    <t>Total Health Family Clinic - District Heights</t>
+  </si>
+  <si>
+    <t>Pain And Rehab Center - Washington, Dc</t>
+  </si>
+  <si>
+    <t>Pain And Rehab Center Of Maryland - Capitol Heights</t>
+  </si>
+  <si>
+    <t>Pain And Rehab Center Of Maryland - Camp Springs, Md</t>
   </si>
   <si>
     <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fairfax, Va</t>
   </si>
   <si>
-    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fort Washington</t>
-  </si>
-  <si>
-    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Landover, Md</t>
-  </si>
-  <si>
-    <t>Kiro-Plus Health &amp; Wellness, Llc</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Baltimore, Md</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Easton, Md</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Silver Spring, Md</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Washington, Dc</t>
-  </si>
-  <si>
-    <t>Mid-Atlantic Spinal Rehab &amp; Chiropractic</t>
-  </si>
-  <si>
-    <t>Multi-Specialty Health Care - Baltimore</t>
-  </si>
-  <si>
-    <t>Multi-Specialty Health Care - Camp Springs</t>
-  </si>
-  <si>
-    <t>Pain And Rehab Center - Washington, Dc</t>
-  </si>
-  <si>
-    <t>Pain And Rehab Center Of Maryland - Camp Springs, Md</t>
-  </si>
-  <si>
-    <t>Pain And Rehab Center Of Maryland - Capitol Heights</t>
-  </si>
-  <si>
-    <t>Rebound Integrative Health &amp; Sports Clinic</t>
-  </si>
-  <si>
-    <t>Rxwellness Spine &amp; Health - Laurel</t>
-  </si>
-  <si>
-    <t>Rxwellness Spine &amp; Health - Rockville</t>
-  </si>
-  <si>
-    <t>Total Health Family Clinic - District Heights</t>
-  </si>
-  <si>
-    <t>Total Health Family Clinic - Landover Hills</t>
-  </si>
-  <si>
-    <t>Waldorf Total Health Chiropractic &amp; Physical Therapy</t>
+    <t>Ballenger Chiropractic, P.A.</t>
+  </si>
+  <si>
+    <t>Collins Chiropractor</t>
+  </si>
+  <si>
+    <t>Clearway Pain Solutions</t>
+  </si>
+  <si>
+    <t>Active Life Physical Therapy</t>
+  </si>
+  <si>
+    <t>Absolute Chiropractic Care - Oxon Hill, Md</t>
+  </si>
+  <si>
+    <t>Absolute Chiropractic Care - Lanham, Md</t>
+  </si>
+  <si>
+    <t>Ameriwell Chiropractic - Bowie, Md</t>
+  </si>
+  <si>
+    <t>Alexander Chiropractic Center</t>
+  </si>
+  <si>
+    <t>Ati Physical Therapy - Catonsville</t>
+  </si>
+  <si>
+    <t>Excelsia Injury Care - Suitland, Md</t>
+  </si>
+  <si>
+    <t>Eric R. Schmitt</t>
+  </si>
+  <si>
+    <t>Dunkirk Family Practice</t>
+  </si>
+  <si>
+    <t>Dr. Koloski</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Columbia, Md</t>
+  </si>
+  <si>
+    <t>Multi-Specialty Health Care - Hyattsville</t>
+  </si>
+  <si>
+    <t>Maryland Orthopedics</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Owings Mills, Md</t>
+  </si>
+  <si>
+    <t>Neuropro Concussion Clinic</t>
+  </si>
+  <si>
+    <t>Rebound Integrative Health &amp; Sports Clinic - Temple Hills</t>
+  </si>
+  <si>
+    <t>Pro Perform</t>
+  </si>
+  <si>
+    <t>Novacare Rehabilitation</t>
+  </si>
+  <si>
+    <t>Rx Wellness--Alexandria</t>
+  </si>
+  <si>
+    <t>Susquehanna Spine &amp; Rehab</t>
+  </si>
+  <si>
+    <t>Thomas Dennis</t>
+  </si>
+  <si>
+    <t>Washington Wellness</t>
+  </si>
+  <si>
+    <t>12102 Old Line Center</t>
+  </si>
+  <si>
+    <t>7500 Hanover Parkway</t>
+  </si>
+  <si>
+    <t>10020 Southern Maryland Blvd</t>
+  </si>
+  <si>
+    <t>7400 Riverdale Rd</t>
+  </si>
+  <si>
+    <t>7701 Greenbelt Rd</t>
+  </si>
+  <si>
+    <t>804 Pershing Dr</t>
+  </si>
+  <si>
+    <t>9300 Livingston Rd</t>
+  </si>
+  <si>
+    <t>4301 Garden City Dr</t>
+  </si>
+  <si>
+    <t>6615 Reisterstown Road</t>
+  </si>
+  <si>
+    <t>400 8Th Street, Ne</t>
+  </si>
+  <si>
+    <t>8121 Georgia Avenue</t>
+  </si>
+  <si>
+    <t>525 Main St</t>
+  </si>
+  <si>
+    <t>8140 Corporate Drive</t>
+  </si>
+  <si>
+    <t>226 East Lafayette Avenue</t>
+  </si>
+  <si>
+    <t>4201 Northview Drive</t>
+  </si>
+  <si>
+    <t>525 Eastern Ave Ne</t>
   </si>
   <si>
     <t>14405 Laurel Place</t>
   </si>
   <si>
-    <t>525 Eastern Ave Ne</t>
-  </si>
-  <si>
     <t>13627 Baltimore Ave</t>
   </si>
   <si>
-    <t>804 Pershing Dr</t>
+    <t>2953 Emmorton Rd</t>
   </si>
   <si>
     <t>2730 University Blvd W</t>
   </si>
   <si>
+    <t>6521 Annapolis Road</t>
+  </si>
+  <si>
+    <t>15001 Shady Grove Rd</t>
+  </si>
+  <si>
+    <t>5210 Indian Head Highway</t>
+  </si>
+  <si>
+    <t>683 Old Mill Rd</t>
+  </si>
+  <si>
     <t>3431 Monarch Drive</t>
   </si>
   <si>
     <t>4733 Elm Street</t>
   </si>
   <si>
-    <t>7500 Hanover Parkway</t>
-  </si>
-  <si>
-    <t>10020 Southern Maryland Blvd</t>
-  </si>
-  <si>
-    <t>7400 Riverdale Rd</t>
-  </si>
-  <si>
-    <t>683 Old Mill Rd</t>
-  </si>
-  <si>
-    <t>5210 Indian Head Highway</t>
-  </si>
-  <si>
-    <t>2953 Emmorton Rd</t>
-  </si>
-  <si>
-    <t>8140 Corporate Drive</t>
+    <t>7696 Ocean Gateway</t>
+  </si>
+  <si>
+    <t>9601 Pulaski Park Drive</t>
+  </si>
+  <si>
+    <t>5801 Allentown Road</t>
+  </si>
+  <si>
+    <t>5730-A Silver Hill Road</t>
+  </si>
+  <si>
+    <t>2041 Martin Luther King Avenue</t>
+  </si>
+  <si>
+    <t>5855 Allentown Road</t>
   </si>
   <si>
     <t>3925 Chain Bridge Rd</t>
   </si>
   <si>
-    <t>9300 Livingston Rd</t>
-  </si>
-  <si>
-    <t>4301 Garden City Dr</t>
-  </si>
-  <si>
-    <t>226 East Lafayette Avenue</t>
-  </si>
-  <si>
-    <t>6615 Reisterstown Road</t>
-  </si>
-  <si>
-    <t>7696 Ocean Gateway</t>
-  </si>
-  <si>
-    <t>8121 Georgia Avenue</t>
-  </si>
-  <si>
-    <t>400 8Th Street, Ne</t>
-  </si>
-  <si>
-    <t>4201 Northview Drive</t>
-  </si>
-  <si>
-    <t>9601 Pulaski Park Drive</t>
-  </si>
-  <si>
-    <t>5801 Allentown Road</t>
-  </si>
-  <si>
-    <t>2041 Martin Luther King Avenue</t>
-  </si>
-  <si>
-    <t>5855 Allentown Road</t>
-  </si>
-  <si>
-    <t>7701 Greenbelt Rd</t>
-  </si>
-  <si>
-    <t>525 Main St</t>
-  </si>
-  <si>
-    <t>15001 Shady Grove Rd</t>
-  </si>
-  <si>
-    <t>5730-A Silver Hill Road</t>
-  </si>
-  <si>
-    <t>6521 Annapolis Road</t>
-  </si>
-  <si>
-    <t>12102 Old Line Center</t>
+    <t>9632 Deereco Road</t>
+  </si>
+  <si>
+    <t>301 Steeple Chase Dr</t>
+  </si>
+  <si>
+    <t>810 Bestgate Rd</t>
+  </si>
+  <si>
+    <t>22599 Mac Arthur Blvd</t>
+  </si>
+  <si>
+    <t>1447 York Road</t>
+  </si>
+  <si>
+    <t>9470 Annapolis Road</t>
+  </si>
+  <si>
+    <t>3233 Superior Ln</t>
+  </si>
+  <si>
+    <t>22930 Three Notch Rd</t>
+  </si>
+  <si>
+    <t>5416 Silver Hill Road</t>
+  </si>
+  <si>
+    <t>836 N Roling Road</t>
+  </si>
+  <si>
+    <t>5801 Allentown Road, #302</t>
+  </si>
+  <si>
+    <t>7525 Greenway Center Drive</t>
+  </si>
+  <si>
+    <t>10845 Town Center Boulevard</t>
+  </si>
+  <si>
+    <t>2024 West St</t>
+  </si>
+  <si>
+    <t>5570 Sterrett Place</t>
+  </si>
+  <si>
+    <t>7503 Annapolis Road</t>
+  </si>
+  <si>
+    <t>545 Main Street</t>
+  </si>
+  <si>
+    <t>5 Park Center Court</t>
+  </si>
+  <si>
+    <t>1110 Benfield Blvd</t>
+  </si>
+  <si>
+    <t>3611 Branch Avenue</t>
+  </si>
+  <si>
+    <t>145 Fleet Street</t>
+  </si>
+  <si>
+    <t>128 Greentree Drive</t>
+  </si>
+  <si>
+    <t>3543 W Braddock Rd</t>
+  </si>
+  <si>
+    <t>2105 Laurel Bush Rd</t>
+  </si>
+  <si>
+    <t>128 Lubrano Drive</t>
+  </si>
+  <si>
+    <t>25 Massachusetts Ave Nw</t>
+  </si>
+  <si>
+    <t>Waldorf</t>
+  </si>
+  <si>
+    <t>Greenbelt</t>
+  </si>
+  <si>
+    <t>Dunkirk</t>
+  </si>
+  <si>
+    <t>Lanham</t>
+  </si>
+  <si>
+    <t>Silver Spring</t>
+  </si>
+  <si>
+    <t>Fort Washington</t>
+  </si>
+  <si>
+    <t>Landover</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
   <si>
     <t>Laurel</t>
   </si>
   <si>
+    <t>Bowie</t>
+  </si>
+  <si>
     <t>Capitol Heights</t>
   </si>
   <si>
-    <t>Silver Spring</t>
+    <t>Abingdon</t>
   </si>
   <si>
     <t>Wheaton</t>
   </si>
   <si>
+    <t>Landover Hills</t>
+  </si>
+  <si>
+    <t>Rockville</t>
+  </si>
+  <si>
+    <t>Oxon Hill</t>
+  </si>
+  <si>
+    <t>Millersville</t>
+  </si>
+  <si>
     <t>Edgewater</t>
   </si>
   <si>
     <t>Bethesda</t>
   </si>
   <si>
-    <t>Greenbelt</t>
-  </si>
-  <si>
-    <t>Dunkirk</t>
-  </si>
-  <si>
-    <t>Lanham</t>
-  </si>
-  <si>
-    <t>Millersville</t>
-  </si>
-  <si>
-    <t>Oxon Hill</t>
-  </si>
-  <si>
-    <t>Abingdon</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
+    <t>Easton</t>
+  </si>
+  <si>
+    <t>Suitland</t>
+  </si>
+  <si>
+    <t>District Heights</t>
+  </si>
+  <si>
+    <t>Fairmount Heights</t>
+  </si>
+  <si>
+    <t>Camp Springs</t>
   </si>
   <si>
     <t>Fairfax</t>
   </si>
   <si>
-    <t>Fort Washington</t>
-  </si>
-  <si>
-    <t>Landover</t>
-  </si>
-  <si>
-    <t>Easton</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Bowie</t>
-  </si>
-  <si>
-    <t>Suitland</t>
-  </si>
-  <si>
-    <t>Camp Springs</t>
-  </si>
-  <si>
-    <t>Fairmount Heights</t>
-  </si>
-  <si>
-    <t>Rockville</t>
-  </si>
-  <si>
-    <t>District Heights</t>
-  </si>
-  <si>
-    <t>Landover Hills</t>
-  </si>
-  <si>
-    <t>Waldorf</t>
+    <t>Timonium</t>
+  </si>
+  <si>
+    <t>Prince Frederick</t>
+  </si>
+  <si>
+    <t>Annapolis</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Luthersville</t>
+  </si>
+  <si>
+    <t>Catonsville</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Hyattsville</t>
+  </si>
+  <si>
+    <t>Owings Mills</t>
+  </si>
+  <si>
+    <t>Temple Hills</t>
+  </si>
+  <si>
+    <t>National Harbor</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Bel Air</t>
   </si>
   <si>
     <t>MD</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
-    <t>DC</t>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>20770-6521</t>
+  </si>
+  <si>
+    <t>21215-2633</t>
   </si>
   <si>
     <t>21009-1631</t>
   </si>
   <si>
-    <t>21215-2633</t>
-  </si>
-  <si>
-    <t>20770-6521</t>
-  </si>
-  <si>
     <t>20850-6352</t>
+  </si>
+  <si>
+    <t>20747-2039</t>
+  </si>
+  <si>
+    <t>21401-3029</t>
+  </si>
+  <si>
+    <t>21015-6185</t>
+  </si>
+  <si>
+    <t>20001-1430</t>
   </si>
 </sst>
 </file>
@@ -689,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,19 +930,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E2">
-        <v>20707</v>
+        <v>20602</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -740,19 +950,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E3">
-        <v>20743</v>
+        <v>20770</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -760,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E4">
-        <v>20707</v>
+        <v>20754</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -780,19 +990,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E5">
-        <v>20910</v>
+        <v>20706</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,19 +1010,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6">
-        <v>20902</v>
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -820,19 +1030,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E7">
-        <v>21037</v>
+        <v>20910</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -840,19 +1050,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E8">
-        <v>20814</v>
+        <v>20744</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -860,19 +1070,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E9">
-        <v>20770</v>
+        <v>20785</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -880,19 +1090,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>20754</v>
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -900,19 +1110,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="E11">
-        <v>20706</v>
+        <v>20002</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -920,19 +1130,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E12">
-        <v>21108</v>
+        <v>20910</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -940,19 +1150,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E13">
-        <v>20745</v>
+        <v>20707</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -960,19 +1170,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
+        <v>164</v>
+      </c>
+      <c r="E14">
+        <v>21236</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -980,19 +1190,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E15">
-        <v>21236</v>
+        <v>21202</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1000,19 +1210,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="E16">
-        <v>22030</v>
+        <v>20716</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1020,19 +1230,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E17">
-        <v>20744</v>
+        <v>20743</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1040,19 +1250,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E18">
-        <v>20785</v>
+        <v>20707</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1060,19 +1270,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E19">
-        <v>21202</v>
+        <v>20707</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1080,19 +1290,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1100,19 +1310,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E21">
-        <v>21601</v>
+        <v>20902</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1120,19 +1330,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E22">
-        <v>20910</v>
+        <v>20784</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1140,19 +1350,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23">
-        <v>20002</v>
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1160,19 +1370,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E24">
-        <v>20716</v>
+        <v>20745</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1180,19 +1390,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E25">
-        <v>21220</v>
+        <v>21108</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1200,19 +1410,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E26">
-        <v>20746</v>
+        <v>21037</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1220,16 +1430,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="E27">
-        <v>20020</v>
+        <v>20814</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1240,16 +1450,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E28">
-        <v>20746</v>
+        <v>21601</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1260,16 +1470,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E29">
-        <v>20743</v>
+        <v>21220</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1280,19 +1490,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
+        <v>164</v>
+      </c>
+      <c r="E30">
+        <v>20746</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1300,19 +1510,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E31">
-        <v>20707</v>
+        <v>20747</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1320,19 +1530,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
+        <v>165</v>
+      </c>
+      <c r="E32">
+        <v>20020</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1340,16 +1550,16 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E33">
-        <v>20747</v>
+        <v>20743</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1360,19 +1570,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E34">
-        <v>20784</v>
+        <v>20746</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1380,19 +1590,559 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35">
+        <v>22030</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36">
+        <v>21093</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="E35">
-        <v>20602</v>
-      </c>
-      <c r="F35">
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37">
+        <v>20678</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38">
+        <v>21401</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39">
+        <v>20619</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40">
+        <v>21093</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41">
+        <v>20745</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42">
+        <v>20706</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43">
+        <v>20715</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44">
+        <v>20619</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46">
+        <v>21228</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47">
+        <v>20746</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48">
+        <v>20770</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49">
+        <v>20754</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51">
+        <v>21044</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52">
+        <v>20784</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53">
+        <v>20707</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54">
+        <v>21117</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55">
+        <v>21108</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56">
+        <v>20748</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57">
+        <v>20745</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58">
+        <v>19904</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59">
+        <v>22302</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61">
+        <v>21401</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
